--- a/调查表_王麻子.xlsx
+++ b/调查表_王麻子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12600" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="27">
   <si>
     <t>村民教育调查</t>
   </si>
@@ -104,9 +104,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -114,6 +114,35 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,7 +162,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,118 +254,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -282,31 +282,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,55 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,91 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,6 +491,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -502,15 +535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,15 +571,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -568,23 +583,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,148 +593,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,13 +1070,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
@@ -1161,6 +1161,550 @@
         <v>16</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>111</v>
+      </c>
+      <c r="D4" s="3">
+        <v>201</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>112</v>
+      </c>
+      <c r="D5" s="3">
+        <v>202</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>113</v>
+      </c>
+      <c r="D6" s="3">
+        <v>203</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>114</v>
+      </c>
+      <c r="D7" s="3">
+        <v>204</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>115</v>
+      </c>
+      <c r="D8" s="3">
+        <v>205</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>116</v>
+      </c>
+      <c r="D9" s="3">
+        <v>206</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <v>117</v>
+      </c>
+      <c r="D10" s="3">
+        <v>207</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>118</v>
+      </c>
+      <c r="D11" s="3">
+        <v>208</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>119</v>
+      </c>
+      <c r="D12" s="3">
+        <v>209</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>120</v>
+      </c>
+      <c r="D13" s="3">
+        <v>210</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>121</v>
+      </c>
+      <c r="D14" s="3">
+        <v>211</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <v>122</v>
+      </c>
+      <c r="D15" s="3">
+        <v>212</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3">
+        <v>123</v>
+      </c>
+      <c r="D16" s="3">
+        <v>213</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3">
+        <v>124</v>
+      </c>
+      <c r="D17" s="3">
+        <v>214</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3">
+        <v>125</v>
+      </c>
+      <c r="D18" s="3">
+        <v>215</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3">
+        <v>126</v>
+      </c>
+      <c r="D19" s="3">
+        <v>216</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3">
+        <v>127</v>
+      </c>
+      <c r="D20" s="3">
+        <v>217</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1178,7 +1722,7 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/调查表_王麻子.xlsx
+++ b/调查表_王麻子.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="45">
   <si>
     <t>村民教育调查</t>
   </si>
@@ -50,40 +50,94 @@
     <t>博士</t>
   </si>
   <si>
+    <t>王麻子1</t>
+  </si>
+  <si>
+    <t>赵庄小学</t>
+  </si>
+  <si>
+    <t>王庄中学</t>
+  </si>
+  <si>
+    <t>赵庄小学高中部</t>
+  </si>
+  <si>
+    <t>剑桥大学</t>
+  </si>
+  <si>
+    <t>牛津大学</t>
+  </si>
+  <si>
+    <t>赵庄研究院</t>
+  </si>
+  <si>
+    <t>王麻子2</t>
+  </si>
+  <si>
+    <t>王麻子3</t>
+  </si>
+  <si>
+    <t>王麻子4</t>
+  </si>
+  <si>
+    <t>王麻子5</t>
+  </si>
+  <si>
+    <t>王麻子6</t>
+  </si>
+  <si>
+    <t>王麻子7</t>
+  </si>
+  <si>
+    <t>王麻子8</t>
+  </si>
+  <si>
+    <t>王麻子9</t>
+  </si>
+  <si>
+    <t>王麻子10</t>
+  </si>
+  <si>
+    <t>王麻子11</t>
+  </si>
+  <si>
+    <t>王麻子12</t>
+  </si>
+  <si>
+    <t>王麻子13</t>
+  </si>
+  <si>
+    <t>王麻子14</t>
+  </si>
+  <si>
+    <t>王麻子15</t>
+  </si>
+  <si>
+    <t>王麻子16</t>
+  </si>
+  <si>
+    <t>王麻子17</t>
+  </si>
+  <si>
+    <t>王麻子18</t>
+  </si>
+  <si>
+    <t>婚姻调查表</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>婚否</t>
+  </si>
+  <si>
+    <t>配偶</t>
+  </si>
+  <si>
+    <t>配偶性别</t>
+  </si>
+  <si>
     <t>王麻子</t>
-  </si>
-  <si>
-    <t>赵庄小学</t>
-  </si>
-  <si>
-    <t>王庄中学</t>
-  </si>
-  <si>
-    <t>赵庄小学高中部</t>
-  </si>
-  <si>
-    <t>剑桥大学</t>
-  </si>
-  <si>
-    <t>牛津大学</t>
-  </si>
-  <si>
-    <t>赵庄研究院</t>
-  </si>
-  <si>
-    <t>婚姻调查表</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>婚否</t>
-  </si>
-  <si>
-    <t>配偶</t>
-  </si>
-  <si>
-    <t>配偶性别</t>
   </si>
   <si>
     <t>女</t>
@@ -103,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -114,13 +168,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,7 +187,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,14 +256,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,14 +277,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -194,22 +287,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,40 +302,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -288,13 +342,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,19 +444,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,133 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,15 +548,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -520,6 +565,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,21 +632,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -579,162 +642,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,7 +1127,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1169,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3">
         <v>111</v>
@@ -1201,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>112</v>
@@ -1233,7 +1287,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3">
         <v>113</v>
@@ -1265,7 +1319,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3">
         <v>114</v>
@@ -1297,7 +1351,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3">
         <v>115</v>
@@ -1329,7 +1383,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3">
         <v>116</v>
@@ -1361,7 +1415,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3">
         <v>117</v>
@@ -1393,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3">
         <v>118</v>
@@ -1425,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3">
         <v>119</v>
@@ -1457,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3">
         <v>120</v>
@@ -1489,7 +1543,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3">
         <v>121</v>
@@ -1521,7 +1575,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3">
         <v>122</v>
@@ -1553,7 +1607,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3">
         <v>123</v>
@@ -1585,7 +1639,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3">
         <v>124</v>
@@ -1617,7 +1671,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3">
         <v>125</v>
@@ -1649,7 +1703,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3">
         <v>126</v>
@@ -1681,7 +1735,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3">
         <v>127</v>
@@ -1730,7 +1784,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1746,16 +1800,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1763,19 +1817,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
